--- a/plots/seinfeld.xlsx
+++ b/plots/seinfeld.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34240" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3040" yWindow="420" windowWidth="34240" windowHeight="19540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Share overall" sheetId="1" r:id="rId1"/>
@@ -911,19 +911,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.274759145580246</c:v>
+                  <c:v>0.276719991813624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25950287992148</c:v>
+                  <c:v>0.258764539345772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.194594873825862</c:v>
+                  <c:v>0.195174585848939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.142151460623854</c:v>
+                  <c:v>0.142126866095894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.128991640048558</c:v>
+                  <c:v>0.127214016895771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,11 +939,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2126542424"/>
-        <c:axId val="2126542776"/>
+        <c:axId val="2134690872"/>
+        <c:axId val="2134693944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126542424"/>
+        <c:axId val="2134690872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126542776"/>
+        <c:crossAx val="2134693944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126542776"/>
+        <c:axId val="2134693944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126542424"/>
+        <c:crossAx val="2134690872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1095,31 +1095,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0961</c:v>
+                  <c:v>0.0997428233822201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1435</c:v>
+                  <c:v>0.145749569213096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1487</c:v>
+                  <c:v>0.147939635624365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1149</c:v>
+                  <c:v>0.118903279140259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1381</c:v>
+                  <c:v>0.143892907624512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1488</c:v>
+                  <c:v>0.147233308165246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1372</c:v>
+                  <c:v>0.142026371439234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1583</c:v>
+                  <c:v>0.158554709269924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1512</c:v>
+                  <c:v>0.147493059258306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,11 +1135,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2126530088"/>
-        <c:axId val="2126568472"/>
+        <c:axId val="2134236888"/>
+        <c:axId val="2134242456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126530088"/>
+        <c:axId val="2134236888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126568472"/>
+        <c:crossAx val="2134242456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1195,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126568472"/>
+        <c:axId val="2134242456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1206,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126530088"/>
+        <c:crossAx val="2134236888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,31 +1309,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.2038</c:v>
+                  <c:v>0.201431848196288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2182</c:v>
+                  <c:v>0.224404078116025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2222</c:v>
+                  <c:v>0.223062788333724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2123</c:v>
+                  <c:v>0.221428079360705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1928</c:v>
+                  <c:v>0.197306061361936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1809</c:v>
+                  <c:v>0.1771293999209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1772</c:v>
+                  <c:v>0.181054857569349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1673</c:v>
+                  <c:v>0.166617127995542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1863</c:v>
+                  <c:v>0.185349978856019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,11 +1349,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2126602216"/>
-        <c:axId val="2126607752"/>
+        <c:axId val="2134266840"/>
+        <c:axId val="2134272376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126602216"/>
+        <c:axId val="2134266840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126607752"/>
+        <c:crossAx val="2134272376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126607752"/>
+        <c:axId val="2134272376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1404,7 +1404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126602216"/>
+        <c:crossAx val="2134266840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,31 +1515,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.4506</c:v>
+                  <c:v>0.450337109890874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3699</c:v>
+                  <c:v>0.378302699597932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.308292282430213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2746</c:v>
+                  <c:v>0.294450950675117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2489</c:v>
+                  <c:v>0.256472935894238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2732</c:v>
+                  <c:v>0.273073742494517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2431</c:v>
+                  <c:v>0.253405274287847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2341</c:v>
+                  <c:v>0.233252832992755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.226</c:v>
+                  <c:v>0.226847340454871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,11 +1555,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2129322712"/>
-        <c:axId val="2129328360"/>
+        <c:axId val="2134297208"/>
+        <c:axId val="2134302840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129322712"/>
+        <c:axId val="2134297208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129328360"/>
+        <c:crossAx val="2134302840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129328360"/>
+        <c:axId val="2134302840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129322712"/>
+        <c:crossAx val="2134297208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,31 +1737,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0853</c:v>
+                  <c:v>0.0759018558420797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0866</c:v>
+                  <c:v>0.0844342331993107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1133</c:v>
+                  <c:v>0.11181484087888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1027</c:v>
+                  <c:v>0.108690410581427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1132</c:v>
+                  <c:v>0.114808347883928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1382</c:v>
+                  <c:v>0.133930176536152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1349</c:v>
+                  <c:v>0.136459758676452</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1622</c:v>
+                  <c:v>0.160319524428757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1603</c:v>
+                  <c:v>0.160105903767306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,11 +1777,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2129356344"/>
-        <c:axId val="2129361880"/>
+        <c:axId val="2134325928"/>
+        <c:axId val="2134331544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129356344"/>
+        <c:axId val="2134325928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129361880"/>
+        <c:crossAx val="2134331544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129361880"/>
+        <c:axId val="2134331544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1848,7 +1848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129356344"/>
+        <c:crossAx val="2134325928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,31 +1946,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.1705</c:v>
+                  <c:v>0.172586362688538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1668</c:v>
+                  <c:v>0.167109419873636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2142</c:v>
+                  <c:v>0.208890452732817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2456</c:v>
+                  <c:v>0.256527280242491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2858</c:v>
+                  <c:v>0.287519747235387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2757</c:v>
+                  <c:v>0.268633372883184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2749</c:v>
+                  <c:v>0.287053738027118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2794</c:v>
+                  <c:v>0.281255805313022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2794</c:v>
+                  <c:v>0.280203717663498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,11 +1986,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2129385816"/>
-        <c:axId val="2129391768"/>
+        <c:axId val="2134355656"/>
+        <c:axId val="2134361672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129385816"/>
+        <c:axId val="2134355656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129391768"/>
+        <c:crossAx val="2134361672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2057,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129391768"/>
+        <c:axId val="2134361672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2068,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129385816"/>
+        <c:crossAx val="2134355656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2733,526 +2733,526 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="176"/>
                 <c:pt idx="0">
-                  <c:v>0.0853029068187992</c:v>
+                  <c:v>0.0855114553081639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.319378506689685</c:v>
+                  <c:v>0.323076923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24169014084507</c:v>
+                  <c:v>0.249843456480902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0891472868217054</c:v>
+                  <c:v>0.0913113435237329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18459706232632</c:v>
+                  <c:v>0.187682064086558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.213306451612903</c:v>
+                  <c:v>0.21320213202132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.260852862082213</c:v>
+                  <c:v>0.258600237247924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.148556876061121</c:v>
+                  <c:v>0.153559795253606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.243940990516333</c:v>
+                  <c:v>0.244886975242196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.230100799443865</c:v>
+                  <c:v>0.233617178822658</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.163765122455001</c:v>
+                  <c:v>0.169260700389105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.129619415333701</c:v>
+                  <c:v>0.12867443150305</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21121778676099</c:v>
+                  <c:v>0.207600680657969</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.186595582635187</c:v>
+                  <c:v>0.1810551558753</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25087787748732</c:v>
+                  <c:v>0.245956034840315</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.308762886597938</c:v>
+                  <c:v>0.311708860759494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.283889575607746</c:v>
+                  <c:v>0.273803884414969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.152917505030181</c:v>
+                  <c:v>0.156137647663071</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27928870292887</c:v>
+                  <c:v>0.279155672823219</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.337056128293242</c:v>
+                  <c:v>0.333114754098361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.277686852154937</c:v>
+                  <c:v>0.277808219178082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.166775244299674</c:v>
+                  <c:v>0.167328042328042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24015009380863</c:v>
+                  <c:v>0.241000378931413</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.230769230769231</c:v>
+                  <c:v>0.232268768145998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.156934306569343</c:v>
+                  <c:v>0.156686177397569</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.337948395217118</c:v>
+                  <c:v>0.34203821656051</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.209893666204346</c:v>
+                  <c:v>0.206654170571696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.207974626189397</c:v>
+                  <c:v>0.210164835164835</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.239343116701607</c:v>
+                  <c:v>0.241964608161791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.287658802177858</c:v>
+                  <c:v>0.285452881976212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.138901098901099</c:v>
+                  <c:v>0.137505509034817</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.256581256581257</c:v>
+                  <c:v>0.253679046951647</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.368137254901961</c:v>
+                  <c:v>0.368031573754317</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.150537634408602</c:v>
+                  <c:v>0.152341973624375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.260916442048517</c:v>
+                  <c:v>0.264608599779493</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.167029379760609</c:v>
+                  <c:v>0.166118421052632</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.340120314669135</c:v>
+                  <c:v>0.341795956746591</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.326149425287356</c:v>
+                  <c:v>0.338868707836015</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.206959043131569</c:v>
+                  <c:v>0.20687134502924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.170992366412214</c:v>
+                  <c:v>0.157917383820998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.137400228050171</c:v>
+                  <c:v>0.136781609195402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.00407608695652174</c:v>
+                  <c:v>0.00411334552102377</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0126886145404664</c:v>
+                  <c:v>0.0105005250262513</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0182318541451668</c:v>
+                  <c:v>0.0183011049723757</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.234612839179351</c:v>
+                  <c:v>0.235333556821991</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.242888402625821</c:v>
+                  <c:v>0.245020842982862</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.352941176470588</c:v>
+                  <c:v>0.351866251944012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.214607754733995</c:v>
+                  <c:v>0.199103474038102</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.211436809226333</c:v>
+                  <c:v>0.212048192771084</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.257328072153326</c:v>
+                  <c:v>0.260225251926497</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.378387202089455</c:v>
+                  <c:v>0.382532418001526</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.276276276276276</c:v>
+                  <c:v>0.268217054263566</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.282506702412869</c:v>
+                  <c:v>0.271807397069086</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.340990667623833</c:v>
+                  <c:v>0.336923076923077</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.277828886844526</c:v>
+                  <c:v>0.277958236658933</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.256872598285545</c:v>
+                  <c:v>0.262283737024221</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.219629375428964</c:v>
+                  <c:v>0.220221606648199</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.159181353041501</c:v>
+                  <c:v>0.161832946635731</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.340634441087613</c:v>
+                  <c:v>0.315546218487395</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.195982627578719</c:v>
+                  <c:v>0.194185408667032</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.276699029126214</c:v>
+                  <c:v>0.278436845778088</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.231831100284206</c:v>
+                  <c:v>0.232673267326733</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.263785875524024</c:v>
+                  <c:v>0.267771639042357</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.204001429081815</c:v>
+                  <c:v>0.205835331734612</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.179487179487179</c:v>
+                  <c:v>0.179850746268657</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.222357723577236</c:v>
+                  <c:v>0.230655495317891</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.230272596843616</c:v>
+                  <c:v>0.226491035492133</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.252239340738087</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.171688459351904</c:v>
+                  <c:v>0.173167848699764</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.185610010427529</c:v>
+                  <c:v>0.193453475542479</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.295415959252971</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.106617647058824</c:v>
+                  <c:v>0.107430194036914</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.331693198263386</c:v>
+                  <c:v>0.349913043478261</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.302204408817635</c:v>
+                  <c:v>0.297690333618477</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.269582245430809</c:v>
+                  <c:v>0.268260292164675</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.37819947043248</c:v>
+                  <c:v>0.37640977443609</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.280672268907563</c:v>
+                  <c:v>0.27728813559322</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.306256306760848</c:v>
+                  <c:v>0.307090719499479</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.332389380530973</c:v>
+                  <c:v>0.335921536575398</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.171777399204997</c:v>
+                  <c:v>0.172628815228093</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.329097839898348</c:v>
+                  <c:v>0.32664647993944</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.173040011811605</c:v>
+                  <c:v>0.175982750041466</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.179328621908127</c:v>
+                  <c:v>0.182527693856999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.126015037593985</c:v>
+                  <c:v>0.126679462571977</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.317748917748918</c:v>
+                  <c:v>0.318181818181818</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.254895104895105</c:v>
+                  <c:v>0.248465149873601</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.254895104895105</c:v>
+                  <c:v>0.248465149873601</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.267441860465116</c:v>
+                  <c:v>0.26711813393529</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.279944928866453</c:v>
+                  <c:v>0.279888785912882</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.325056433408578</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.185309973045822</c:v>
+                  <c:v>0.199922510654785</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.235922330097087</c:v>
+                  <c:v>0.236257735711685</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.102225088681071</c:v>
+                  <c:v>0.106955871353777</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.270756796473181</c:v>
+                  <c:v>0.26945885841364</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.156576200417537</c:v>
+                  <c:v>0.161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.313890261987148</c:v>
+                  <c:v>0.308654327163582</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.189580885233059</c:v>
+                  <c:v>0.188836104513064</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.18874064432151</c:v>
+                  <c:v>0.18872870249017</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.159562841530055</c:v>
+                  <c:v>0.147540983606557</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.300356153541749</c:v>
+                  <c:v>0.299163179916318</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.27545416138572</c:v>
+                  <c:v>0.272959183673469</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.224666142969364</c:v>
+                  <c:v>0.222776392352452</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.181017612524462</c:v>
+                  <c:v>0.179292929292929</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.275758711127763</c:v>
+                  <c:v>0.273049645390071</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.277516059957173</c:v>
+                  <c:v>0.276198934280639</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.284015852047556</c:v>
+                  <c:v>0.280510018214936</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.409032807839796</c:v>
+                  <c:v>0.399472063352398</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.158380994280686</c:v>
+                  <c:v>0.15929203539823</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.203307785397338</c:v>
+                  <c:v>0.203554119547658</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.225516322451699</c:v>
+                  <c:v>0.226434082522643</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.24479568234387</c:v>
+                  <c:v>0.242580134546894</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.280503550677857</c:v>
+                  <c:v>0.281454783748362</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.173697270471464</c:v>
+                  <c:v>0.165</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.270756796473181</c:v>
+                  <c:v>0.26945885841364</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.17056856187291</c:v>
+                  <c:v>0.171223021582734</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.242767295597484</c:v>
+                  <c:v>0.247252747252747</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.31452935388652</c:v>
+                  <c:v>0.302267895109851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.159032612678637</c:v>
+                  <c:v>0.164208074534162</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.271308016877637</c:v>
+                  <c:v>0.272186836518047</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0.312759097190235</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.289136099418721</c:v>
+                  <c:v>0.290922309929373</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.261041009463722</c:v>
+                  <c:v>0.259305210918114</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.507114399544678</c:v>
+                  <c:v>0.503663003663004</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.280071016422548</c:v>
+                  <c:v>0.280772686433064</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.281487513572204</c:v>
+                  <c:v>0.282106782106782</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.210906174819567</c:v>
+                  <c:v>0.208262350936968</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.229830775285321</c:v>
+                  <c:v>0.22960229602296</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.18018825638727</c:v>
+                  <c:v>0.181489841986456</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.119549240568349</c:v>
+                  <c:v>0.112640163098879</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.183246073298429</c:v>
+                  <c:v>0.17639751552795</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.353707414829659</c:v>
+                  <c:v>0.332541567695962</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.242154566744731</c:v>
+                  <c:v>0.2355792535143</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.228879791589133</c:v>
+                  <c:v>0.236233040702314</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.217984604618614</c:v>
+                  <c:v>0.225466342254663</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.255688870500621</c:v>
+                  <c:v>0.236347358997314</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.258767072720561</c:v>
+                  <c:v>0.265139751552795</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>0.267738883632923</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.319641916798315</c:v>
+                  <c:v>0.318924617817607</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.17046379170057</c:v>
+                  <c:v>0.173557278208441</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.211575875486381</c:v>
+                  <c:v>0.207251347378736</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.305357142857143</c:v>
+                  <c:v>0.308071239105722</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.179846513179847</c:v>
+                  <c:v>0.18316041500399</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.21793997271487</c:v>
+                  <c:v>0.21878536401358</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.278566094100075</c:v>
+                  <c:v>0.277340676632573</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.243169398907104</c:v>
+                  <c:v>0.230731225296443</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.231212024304445</c:v>
+                  <c:v>0.237362637362637</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.215726636475916</c:v>
+                  <c:v>0.216171617161716</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.31421568627451</c:v>
+                  <c:v>0.311734693877551</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.218761726078799</c:v>
+                  <c:v>0.223067681217461</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.180895073335841</c:v>
+                  <c:v>0.180241327300151</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.333819241982507</c:v>
+                  <c:v>0.332422941865002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.267985611510791</c:v>
+                  <c:v>0.266540642722117</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.257363253856942</c:v>
+                  <c:v>0.264280549530007</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.232727272727273</c:v>
+                  <c:v>0.234113712374582</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.126065500224316</c:v>
+                  <c:v>0.127843494085532</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.164154652686763</c:v>
+                  <c:v>0.164503682918274</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.258284157966409</c:v>
+                  <c:v>0.258596325953839</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.278745644599303</c:v>
+                  <c:v>0.270112850382235</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>0.131910235358511</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.245348334054522</c:v>
+                  <c:v>0.241856314145471</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.1872</c:v>
+                  <c:v>0.181577203445991</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.312610489098409</c:v>
+                  <c:v>0.309803921568627</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.234437086092715</c:v>
+                  <c:v>0.230683713173986</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.0955839628123184</c:v>
+                  <c:v>0.240242516104585</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.20977312390925</c:v>
+                  <c:v>0.0846800258564964</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.378119800332779</c:v>
+                  <c:v>0.211545230552622</c:v>
                 </c:pt>
                 <c:pt idx="166">
+                  <c:v>0.381222707423581</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>0.291484716157205</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>0.234978540772532</c:v>
                 </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.193942354665364</c:v>
-                </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.193942354665364</c:v>
+                  <c:v>0.195759368836292</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.210207939508507</c:v>
+                  <c:v>0.216322948661694</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.257916825639069</c:v>
+                  <c:v>0.258212375859435</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.243966817496229</c:v>
+                  <c:v>0.243580060422961</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.218487394957983</c:v>
+                  <c:v>0.218654434250765</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>0.175671303785183</c:v>
@@ -3274,11 +3274,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2126660776"/>
-        <c:axId val="2126666440"/>
+        <c:axId val="2134406712"/>
+        <c:axId val="2134412376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126660776"/>
+        <c:axId val="2134406712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126666440"/>
+        <c:crossAx val="2134412376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126666440"/>
+        <c:axId val="2134412376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3356,7 +3356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126660776"/>
+        <c:crossAx val="2134406712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3936,7 +3936,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3969,19 +3969,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.274759145580246</v>
+        <v>0.276719991813624</v>
       </c>
       <c r="C2" s="2">
-        <v>0.25950287992148002</v>
+        <v>0.25876453934577198</v>
       </c>
       <c r="D2" s="2">
-        <v>0.19459487382586199</v>
+        <v>0.19517458584893899</v>
       </c>
       <c r="E2" s="2">
-        <v>0.142151460623854</v>
+        <v>0.14212686609589401</v>
       </c>
       <c r="F2" s="2">
-        <v>0.12899164004855801</v>
+        <v>0.127214016895771</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4325,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4372,7 +4372,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>9.6100000000000005E-2</v>
+        <v>9.9742823382220097E-2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4399,12 +4399,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="35">
+    <row r="3" spans="1:25" ht="38">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>0.14349999999999999</v>
+        <v>0.14574956921309601</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>0.1487</v>
+        <v>0.14793963562436499</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4470,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>0.1149</v>
+        <v>0.118903279140259</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1381</v>
+        <v>0.14389290762451201</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4534,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>0.14879999999999999</v>
+        <v>0.14723330816524599</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4566,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>0.13719999999999999</v>
+        <v>0.14202637143923399</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4598,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>0.1583</v>
+        <v>0.15855470926992399</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4630,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4">
-        <v>0.1512</v>
+        <v>0.147493059258306</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -4662,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>0.20380000000000001</v>
+        <v>0.20143184819628801</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4694,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>0.21820000000000001</v>
+        <v>0.224404078116025</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4726,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>0.22220000000000001</v>
+        <v>0.223062788333724</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4758,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>0.21229999999999999</v>
+        <v>0.22142807936070499</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -4790,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="4">
-        <v>0.1928</v>
+        <v>0.19730606136193601</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -4822,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>0.18090000000000001</v>
+        <v>0.17712939992089999</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4854,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>0.1772</v>
+        <v>0.181054857569349</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4886,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <v>0.1673</v>
+        <v>0.16661712799554201</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>0.18629999999999999</v>
+        <v>0.185349978856019</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>0.4506</v>
+        <v>0.450337109890874</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>0.36990000000000001</v>
+        <v>0.378302699597932</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>0.3105</v>
+        <v>0.308292282430213</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>0.27460000000000001</v>
+        <v>0.29445095067511701</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>0.24890000000000001</v>
+        <v>0.25647293589423797</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>0.2732</v>
+        <v>0.27307374249451699</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>0.24310000000000001</v>
+        <v>0.25340527428784698</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>0.2341</v>
+        <v>0.23325283299275501</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4">
-        <v>0.22600000000000001</v>
+        <v>0.22684734045487101</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -5238,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4">
-        <v>8.5300000000000001E-2</v>
+        <v>7.5901855842079702E-2</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4">
-        <v>8.6599999999999996E-2</v>
+        <v>8.4434233199310704E-2</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4">
-        <v>0.1133</v>
+        <v>0.11181484087888</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -5334,7 +5334,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="4">
-        <v>0.1027</v>
+        <v>0.108690410581427</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5366,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>0.1132</v>
+        <v>0.11480834788392801</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5398,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="4">
-        <v>0.13819999999999999</v>
+        <v>0.133930176536152</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="4">
-        <v>0.13489999999999999</v>
+        <v>0.13645975867645199</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5441,7 +5441,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="4">
-        <v>0.16220000000000001</v>
+        <v>0.16031952442875699</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -5452,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="4">
-        <v>0.1603</v>
+        <v>0.16010590376730599</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <v>0.17050000000000001</v>
+        <v>0.172586362688538</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>0.1668</v>
+        <v>0.16710941987363601</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -5485,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>0.2142</v>
+        <v>0.20889045273281701</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5496,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>0.24560000000000001</v>
+        <v>0.256527280242491</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5507,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="4">
-        <v>0.2858</v>
+        <v>0.28751974723538698</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5518,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4">
-        <v>0.2757</v>
+        <v>0.26863337288318401</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5529,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="4">
-        <v>0.27489999999999998</v>
+        <v>0.28705373802711798</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5540,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="4">
-        <v>0.27939999999999998</v>
+        <v>0.28125580531302202</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -5551,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="4">
-        <v>0.27939999999999998</v>
+        <v>0.280203717663498</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -5581,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG353"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5663,10 +5663,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="4">
-        <v>8.5302906818799207E-2</v>
+        <v>8.5511455308163897E-2</v>
       </c>
       <c r="J2" s="4">
-        <v>0.91469709318120096</v>
+        <v>0.91448854469183605</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5714,10 +5714,10 @@
         <v>22</v>
       </c>
       <c r="I3" s="4">
-        <v>0.31937850668968498</v>
+        <v>0.32307692307692298</v>
       </c>
       <c r="J3" s="4">
-        <v>0.68062149331031496</v>
+        <v>0.67692307692307696</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5765,10 +5765,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="4">
-        <v>0.24169014084507001</v>
+        <v>0.249843456480902</v>
       </c>
       <c r="J4" s="4">
-        <v>0.75830985915492999</v>
+        <v>0.750156543519098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -5816,10 +5816,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="4">
-        <v>8.9147286821705404E-2</v>
+        <v>9.1311343523732894E-2</v>
       </c>
       <c r="J5" s="4">
-        <v>0.91085271317829497</v>
+        <v>0.90868865647626695</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -5867,10 +5867,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="4">
-        <v>0.18459706232632</v>
+        <v>0.18768206408655799</v>
       </c>
       <c r="J6" s="4">
-        <v>0.81540293767368</v>
+        <v>0.81231793591344104</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -5918,10 +5918,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="4">
-        <v>0.21330645161290299</v>
+        <v>0.21320213202131999</v>
       </c>
       <c r="J7" s="4">
-        <v>0.78669354838709704</v>
+        <v>0.78679786797868001</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -5969,10 +5969,10 @@
         <v>27</v>
       </c>
       <c r="I8" s="4">
-        <v>0.26085286208221298</v>
+        <v>0.25860023724792403</v>
       </c>
       <c r="J8" s="4">
-        <v>0.73914713791778697</v>
+        <v>0.74139976275207597</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -6020,10 +6020,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="4">
-        <v>0.148556876061121</v>
+        <v>0.153559795253606</v>
       </c>
       <c r="J9" s="4">
-        <v>0.851443123938879</v>
+        <v>0.84644020474639403</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -6071,10 +6071,10 @@
         <v>29</v>
       </c>
       <c r="I10" s="4">
-        <v>0.243940990516333</v>
+        <v>0.24488697524219599</v>
       </c>
       <c r="J10" s="4">
-        <v>0.756059009483667</v>
+        <v>0.75511302475780395</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -6122,10 +6122,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="4">
-        <v>0.230100799443865</v>
+        <v>0.23361717882265801</v>
       </c>
       <c r="J11" s="4">
-        <v>0.76989920055613503</v>
+        <v>0.76638282117734202</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -6173,10 +6173,10 @@
         <v>31</v>
       </c>
       <c r="I12" s="4">
-        <v>0.16376512245500099</v>
+        <v>0.16926070038910501</v>
       </c>
       <c r="J12" s="4">
-        <v>0.83623487754499803</v>
+        <v>0.83073929961089499</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -6224,10 +6224,10 @@
         <v>32</v>
       </c>
       <c r="I13" s="4">
-        <v>0.129619415333701</v>
+        <v>0.12867443150305</v>
       </c>
       <c r="J13" s="4">
-        <v>0.87038058466629897</v>
+        <v>0.87132556849694998</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -6275,10 +6275,10 @@
         <v>33</v>
       </c>
       <c r="I14" s="4">
-        <v>0.21121778676099001</v>
+        <v>0.20760068065796899</v>
       </c>
       <c r="J14" s="4">
-        <v>0.78878221323900999</v>
+        <v>0.79239931934203101</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -6326,10 +6326,10 @@
         <v>34</v>
       </c>
       <c r="I15" s="4">
-        <v>0.186595582635187</v>
+        <v>0.18105515587529999</v>
       </c>
       <c r="J15" s="4">
-        <v>0.81340441736481295</v>
+        <v>0.81894484412470003</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -6377,10 +6377,10 @@
         <v>35</v>
       </c>
       <c r="I16" s="4">
-        <v>0.25087787748731999</v>
+        <v>0.245956034840315</v>
       </c>
       <c r="J16" s="4">
-        <v>0.74912212251267996</v>
+        <v>0.75404396515968497</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -6428,10 +6428,10 @@
         <v>36</v>
       </c>
       <c r="I17" s="4">
-        <v>0.30876288659793799</v>
+        <v>0.311708860759494</v>
       </c>
       <c r="J17" s="4">
-        <v>0.69123711340206195</v>
+        <v>0.688291139240506</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -6479,10 +6479,10 @@
         <v>37</v>
       </c>
       <c r="I18" s="4">
-        <v>0.28388957560774603</v>
+        <v>0.273803884414969</v>
       </c>
       <c r="J18" s="4">
-        <v>0.71611042439225403</v>
+        <v>0.72619611558503105</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -6530,10 +6530,10 @@
         <v>38</v>
       </c>
       <c r="I19" s="4">
-        <v>0.15291750503018101</v>
+        <v>0.15613764766307101</v>
       </c>
       <c r="J19" s="4">
-        <v>0.84708249496981902</v>
+        <v>0.84386235233692897</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -6581,10 +6581,10 @@
         <v>39</v>
       </c>
       <c r="I20" s="4">
-        <v>0.27928870292886998</v>
+        <v>0.27915567282321901</v>
       </c>
       <c r="J20" s="4">
-        <v>0.72071129707113002</v>
+        <v>0.72084432717678104</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -6632,10 +6632,10 @@
         <v>40</v>
       </c>
       <c r="I21" s="4">
-        <v>0.337056128293242</v>
+        <v>0.333114754098361</v>
       </c>
       <c r="J21" s="4">
-        <v>0.66294387170675795</v>
+        <v>0.666885245901639</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -6683,10 +6683,10 @@
         <v>41</v>
       </c>
       <c r="I22" s="4">
-        <v>0.27768685215493699</v>
+        <v>0.27780821917808202</v>
       </c>
       <c r="J22" s="4">
-        <v>0.72231314784506295</v>
+        <v>0.72219178082191804</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -6734,10 +6734,10 @@
         <v>42</v>
       </c>
       <c r="I23" s="4">
-        <v>0.166775244299674</v>
+        <v>0.16732804232804199</v>
       </c>
       <c r="J23" s="4">
-        <v>0.83322475570032595</v>
+        <v>0.83267195767195801</v>
       </c>
       <c r="K23">
         <v>22</v>
@@ -6785,10 +6785,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="4">
-        <v>0.24015009380863001</v>
+        <v>0.24100037893141299</v>
       </c>
       <c r="J24" s="4">
-        <v>0.75984990619137005</v>
+        <v>0.75899962106858698</v>
       </c>
       <c r="K24">
         <v>23</v>
@@ -6836,10 +6836,10 @@
         <v>44</v>
       </c>
       <c r="I25" s="4">
-        <v>0.230769230769231</v>
+        <v>0.23226876814599801</v>
       </c>
       <c r="J25" s="4">
-        <v>0.76923076923076905</v>
+        <v>0.76773123185400205</v>
       </c>
       <c r="K25">
         <v>24</v>
@@ -6887,10 +6887,10 @@
         <v>45</v>
       </c>
       <c r="I26" s="4">
-        <v>0.15693430656934301</v>
+        <v>0.15668617739756899</v>
       </c>
       <c r="J26" s="4">
-        <v>0.84306569343065696</v>
+        <v>0.84331382260243104</v>
       </c>
       <c r="K26">
         <v>25</v>
@@ -6938,10 +6938,10 @@
         <v>46</v>
       </c>
       <c r="I27" s="4">
-        <v>0.337948395217118</v>
+        <v>0.34203821656050998</v>
       </c>
       <c r="J27" s="4">
-        <v>0.66205160478288205</v>
+        <v>0.65796178343948997</v>
       </c>
       <c r="K27">
         <v>26</v>
@@ -6989,10 +6989,10 @@
         <v>47</v>
       </c>
       <c r="I28" s="4">
-        <v>0.20989366620434599</v>
+        <v>0.20665417057169599</v>
       </c>
       <c r="J28" s="4">
-        <v>0.79010633379565398</v>
+        <v>0.79334582942830401</v>
       </c>
       <c r="K28">
         <v>27</v>
@@ -7040,10 +7040,10 @@
         <v>48</v>
       </c>
       <c r="I29" s="4">
-        <v>0.20797462618939699</v>
+        <v>0.210164835164835</v>
       </c>
       <c r="J29" s="4">
-        <v>0.79202537381060301</v>
+        <v>0.78983516483516503</v>
       </c>
       <c r="K29">
         <v>28</v>
@@ -7091,10 +7091,10 @@
         <v>49</v>
       </c>
       <c r="I30" s="4">
-        <v>0.23934311670160699</v>
+        <v>0.24196460816179099</v>
       </c>
       <c r="J30" s="4">
-        <v>0.76065688329839298</v>
+        <v>0.75803539183820901</v>
       </c>
       <c r="K30">
         <v>29</v>
@@ -7142,10 +7142,10 @@
         <v>50</v>
       </c>
       <c r="I31" s="4">
-        <v>0.287658802177858</v>
+        <v>0.28545288197621199</v>
       </c>
       <c r="J31" s="4">
-        <v>0.712341197822142</v>
+        <v>0.71454711802378801</v>
       </c>
       <c r="K31">
         <v>30</v>
@@ -7193,10 +7193,10 @@
         <v>51</v>
       </c>
       <c r="I32" s="4">
-        <v>0.138901098901099</v>
+        <v>0.13750550903481701</v>
       </c>
       <c r="J32" s="4">
-        <v>0.86109890109890097</v>
+        <v>0.86249449096518305</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -7244,10 +7244,10 @@
         <v>52</v>
       </c>
       <c r="I33" s="4">
-        <v>0.25658125658125702</v>
+        <v>0.253679046951647</v>
       </c>
       <c r="J33" s="4">
-        <v>0.74341874341874303</v>
+        <v>0.746320953048353</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -7295,10 +7295,10 @@
         <v>53</v>
       </c>
       <c r="I34" s="4">
-        <v>0.36813725490196098</v>
+        <v>0.368031573754317</v>
       </c>
       <c r="J34" s="4">
-        <v>0.63186274509803897</v>
+        <v>0.63196842624568295</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -7346,10 +7346,10 @@
         <v>54</v>
       </c>
       <c r="I35" s="4">
-        <v>0.15053763440860199</v>
+        <v>0.15234197362437499</v>
       </c>
       <c r="J35" s="4">
-        <v>0.84946236559139798</v>
+        <v>0.84765802637562504</v>
       </c>
       <c r="K35">
         <v>34</v>
@@ -7397,10 +7397,10 @@
         <v>55</v>
       </c>
       <c r="I36" s="4">
-        <v>0.26091644204851699</v>
+        <v>0.26460859977949303</v>
       </c>
       <c r="J36" s="4">
-        <v>0.73908355795148295</v>
+        <v>0.73539140022050697</v>
       </c>
       <c r="K36">
         <v>35</v>
@@ -7448,10 +7448,10 @@
         <v>56</v>
       </c>
       <c r="I37" s="4">
-        <v>0.167029379760609</v>
+        <v>0.166118421052632</v>
       </c>
       <c r="J37" s="4">
-        <v>0.83297062023939095</v>
+        <v>0.83388157894736803</v>
       </c>
       <c r="K37">
         <v>36</v>
@@ -7499,10 +7499,10 @@
         <v>57</v>
       </c>
       <c r="I38" s="4">
-        <v>0.340120314669135</v>
+        <v>0.34179595674659102</v>
       </c>
       <c r="J38" s="4">
-        <v>0.65987968533086505</v>
+        <v>0.65820404325340898</v>
       </c>
       <c r="K38">
         <v>37</v>
@@ -7550,10 +7550,10 @@
         <v>58</v>
       </c>
       <c r="I39" s="4">
-        <v>0.32614942528735602</v>
+        <v>0.33886870783601503</v>
       </c>
       <c r="J39" s="4">
-        <v>0.67385057471264398</v>
+        <v>0.66113129216398503</v>
       </c>
       <c r="K39">
         <v>38</v>
@@ -7601,10 +7601,10 @@
         <v>59</v>
       </c>
       <c r="I40" s="4">
-        <v>0.20695904313156899</v>
+        <v>0.20687134502924001</v>
       </c>
       <c r="J40" s="4">
-        <v>0.79304095686843101</v>
+        <v>0.79312865497076002</v>
       </c>
       <c r="K40">
         <v>39</v>
@@ -7652,10 +7652,10 @@
         <v>60</v>
       </c>
       <c r="I41" s="4">
-        <v>0.17099236641221399</v>
+        <v>0.15791738382099799</v>
       </c>
       <c r="J41" s="4">
-        <v>0.82900763358778595</v>
+        <v>0.84208261617900204</v>
       </c>
       <c r="K41">
         <v>40</v>
@@ -7703,10 +7703,10 @@
         <v>61</v>
       </c>
       <c r="I42" s="4">
-        <v>0.13740022805017099</v>
+        <v>0.136781609195402</v>
       </c>
       <c r="J42" s="4">
-        <v>0.86259977194982895</v>
+        <v>0.86321839080459795</v>
       </c>
       <c r="K42">
         <v>41</v>
@@ -7754,10 +7754,10 @@
         <v>62</v>
       </c>
       <c r="I43" s="4">
-        <v>4.0760869565217399E-3</v>
+        <v>4.1133455210237702E-3</v>
       </c>
       <c r="J43" s="4">
-        <v>0.99592391304347805</v>
+        <v>0.99588665447897595</v>
       </c>
       <c r="K43">
         <v>42</v>
@@ -7805,10 +7805,10 @@
         <v>63</v>
       </c>
       <c r="I44" s="4">
-        <v>1.26886145404664E-2</v>
+        <v>1.05005250262513E-2</v>
       </c>
       <c r="J44" s="4">
-        <v>0.98731138545953401</v>
+        <v>0.98949947497374902</v>
       </c>
       <c r="K44">
         <v>43</v>
@@ -7856,10 +7856,10 @@
         <v>64</v>
       </c>
       <c r="I45" s="4">
-        <v>1.8231854145166801E-2</v>
+        <v>1.8301104972375699E-2</v>
       </c>
       <c r="J45" s="4">
-        <v>0.98176814585483296</v>
+        <v>0.98169889502762397</v>
       </c>
       <c r="K45">
         <v>44</v>
@@ -7885,10 +7885,10 @@
         <v>65</v>
       </c>
       <c r="I46" s="4">
-        <v>0.234612839179351</v>
+        <v>0.235333556821991</v>
       </c>
       <c r="J46" s="4">
-        <v>0.76538716082064895</v>
+        <v>0.76466644317800903</v>
       </c>
       <c r="K46">
         <v>45</v>
@@ -7914,10 +7914,10 @@
         <v>66</v>
       </c>
       <c r="I47" s="4">
-        <v>0.24288840262582101</v>
+        <v>0.245020842982862</v>
       </c>
       <c r="J47" s="4">
-        <v>0.75711159737417899</v>
+        <v>0.75497915701713803</v>
       </c>
       <c r="K47">
         <v>46</v>
@@ -7943,10 +7943,10 @@
         <v>67</v>
       </c>
       <c r="I48" s="4">
-        <v>0.35294117647058798</v>
+        <v>0.351866251944012</v>
       </c>
       <c r="J48" s="4">
-        <v>0.64705882352941202</v>
+        <v>0.648133748055988</v>
       </c>
       <c r="K48">
         <v>47</v>
@@ -7972,10 +7972,10 @@
         <v>68</v>
       </c>
       <c r="I49" s="4">
-        <v>0.21460775473399499</v>
+        <v>0.199103474038102</v>
       </c>
       <c r="J49" s="4">
-        <v>0.78539224526600504</v>
+        <v>0.80089652596189798</v>
       </c>
       <c r="K49">
         <v>48</v>
@@ -8001,10 +8001,10 @@
         <v>69</v>
       </c>
       <c r="I50" s="4">
-        <v>0.21143680922633301</v>
+        <v>0.212048192771084</v>
       </c>
       <c r="J50" s="4">
-        <v>0.78856319077366699</v>
+        <v>0.787951807228916</v>
       </c>
       <c r="K50">
         <v>49</v>
@@ -8030,10 +8030,10 @@
         <v>70</v>
       </c>
       <c r="I51" s="4">
-        <v>0.25732807215332598</v>
+        <v>0.26022525192649698</v>
       </c>
       <c r="J51" s="4">
-        <v>0.74267192784667402</v>
+        <v>0.73977474807350296</v>
       </c>
       <c r="K51">
         <v>50</v>
@@ -8059,10 +8059,10 @@
         <v>71</v>
       </c>
       <c r="I52" s="4">
-        <v>0.37838720208945498</v>
+        <v>0.38253241800152599</v>
       </c>
       <c r="J52" s="4">
-        <v>0.62161279791054502</v>
+        <v>0.61746758199847396</v>
       </c>
       <c r="K52">
         <v>51</v>
@@ -8088,10 +8088,10 @@
         <v>72</v>
       </c>
       <c r="I53" s="4">
-        <v>0.27627627627627599</v>
+        <v>0.26821705426356601</v>
       </c>
       <c r="J53" s="4">
-        <v>0.72372372372372396</v>
+        <v>0.73178294573643399</v>
       </c>
       <c r="K53">
         <v>52</v>
@@ -8117,10 +8117,10 @@
         <v>73</v>
       </c>
       <c r="I54" s="4">
-        <v>0.28250670241286902</v>
+        <v>0.27180739706908602</v>
       </c>
       <c r="J54" s="4">
-        <v>0.71749329758713098</v>
+        <v>0.72819260293091403</v>
       </c>
       <c r="K54">
         <v>53</v>
@@ -8146,10 +8146,10 @@
         <v>74</v>
       </c>
       <c r="I55" s="4">
-        <v>0.34099066762383301</v>
+        <v>0.33692307692307699</v>
       </c>
       <c r="J55" s="4">
-        <v>0.65900933237616699</v>
+        <v>0.66307692307692301</v>
       </c>
       <c r="K55">
         <v>54</v>
@@ -8175,10 +8175,10 @@
         <v>75</v>
       </c>
       <c r="I56" s="4">
-        <v>0.277828886844526</v>
+        <v>0.27795823665893299</v>
       </c>
       <c r="J56" s="4">
-        <v>0.722171113155474</v>
+        <v>0.72204176334106696</v>
       </c>
       <c r="K56">
         <v>55</v>
@@ -8204,10 +8204,10 @@
         <v>76</v>
       </c>
       <c r="I57" s="4">
-        <v>0.25687259828554498</v>
+        <v>0.26228373702422098</v>
       </c>
       <c r="J57" s="4">
-        <v>0.74312740171445502</v>
+        <v>0.73771626297577897</v>
       </c>
       <c r="K57">
         <v>56</v>
@@ -8233,10 +8233,10 @@
         <v>77</v>
       </c>
       <c r="I58" s="4">
-        <v>0.21962937542896399</v>
+        <v>0.22022160664819901</v>
       </c>
       <c r="J58" s="4">
-        <v>0.78037062457103601</v>
+        <v>0.77977839335180099</v>
       </c>
       <c r="K58">
         <v>57</v>
@@ -8262,10 +8262,10 @@
         <v>78</v>
       </c>
       <c r="I59" s="4">
-        <v>0.15918135304150099</v>
+        <v>0.161832946635731</v>
       </c>
       <c r="J59" s="4">
-        <v>0.84081864695849895</v>
+        <v>0.838167053364269</v>
       </c>
       <c r="K59">
         <v>58</v>
@@ -8291,10 +8291,10 @@
         <v>79</v>
       </c>
       <c r="I60" s="4">
-        <v>0.34063444108761298</v>
+        <v>0.315546218487395</v>
       </c>
       <c r="J60" s="4">
-        <v>0.65936555891238702</v>
+        <v>0.68445378151260505</v>
       </c>
       <c r="K60">
         <v>59</v>
@@ -8320,10 +8320,10 @@
         <v>80</v>
       </c>
       <c r="I61" s="4">
-        <v>0.19598262757871901</v>
+        <v>0.19418540866703199</v>
       </c>
       <c r="J61" s="4">
-        <v>0.80401737242128102</v>
+        <v>0.80581459133296796</v>
       </c>
       <c r="K61">
         <v>60</v>
@@ -8349,10 +8349,10 @@
         <v>81</v>
       </c>
       <c r="I62" s="4">
-        <v>0.27669902912621402</v>
+        <v>0.27843684577808803</v>
       </c>
       <c r="J62" s="4">
-        <v>0.72330097087378598</v>
+        <v>0.72156315422191197</v>
       </c>
       <c r="K62">
         <v>61</v>
@@ -8378,10 +8378,10 @@
         <v>82</v>
       </c>
       <c r="I63" s="4">
-        <v>0.231831100284206</v>
+        <v>0.23267326732673299</v>
       </c>
       <c r="J63" s="4">
-        <v>0.76816889971579405</v>
+        <v>0.76732673267326701</v>
       </c>
       <c r="K63">
         <v>62</v>
@@ -8407,10 +8407,10 @@
         <v>83</v>
       </c>
       <c r="I64" s="4">
-        <v>0.26378587552402399</v>
+        <v>0.26777163904235701</v>
       </c>
       <c r="J64" s="4">
-        <v>0.73621412447597501</v>
+        <v>0.73222836095764299</v>
       </c>
       <c r="K64">
         <v>63</v>
@@ -8436,10 +8436,10 @@
         <v>84</v>
       </c>
       <c r="I65" s="4">
-        <v>0.20400142908181501</v>
+        <v>0.20583533173461199</v>
       </c>
       <c r="J65" s="4">
-        <v>0.79599857091818504</v>
+        <v>0.79416466826538801</v>
       </c>
       <c r="K65">
         <v>64</v>
@@ -8465,10 +8465,10 @@
         <v>85</v>
       </c>
       <c r="I66" s="4">
-        <v>0.17948717948717899</v>
+        <v>0.17985074626865699</v>
       </c>
       <c r="J66" s="4">
-        <v>0.82051282051282004</v>
+        <v>0.82014925373134295</v>
       </c>
       <c r="K66">
         <v>65</v>
@@ -8494,10 +8494,10 @@
         <v>86</v>
       </c>
       <c r="I67" s="4">
-        <v>0.22235772357723599</v>
+        <v>0.23065549531789101</v>
       </c>
       <c r="J67" s="4">
-        <v>0.77764227642276396</v>
+        <v>0.76934450468210902</v>
       </c>
       <c r="K67">
         <v>66</v>
@@ -8523,10 +8523,10 @@
         <v>87</v>
       </c>
       <c r="I68" s="4">
-        <v>0.23027259684361601</v>
+        <v>0.22649103549213301</v>
       </c>
       <c r="J68" s="4">
-        <v>0.76972740315638499</v>
+        <v>0.77350896450786699</v>
       </c>
       <c r="K68">
         <v>67</v>
@@ -8581,10 +8581,10 @@
         <v>89</v>
       </c>
       <c r="I70" s="4">
-        <v>0.17168845935190399</v>
+        <v>0.17316784869976401</v>
       </c>
       <c r="J70" s="4">
-        <v>0.82831154064809598</v>
+        <v>0.82683215130023602</v>
       </c>
       <c r="K70">
         <v>69</v>
@@ -8610,10 +8610,10 @@
         <v>90</v>
       </c>
       <c r="I71" s="4">
-        <v>0.185610010427529</v>
+        <v>0.19345347554247899</v>
       </c>
       <c r="J71" s="4">
-        <v>0.814389989572471</v>
+        <v>0.80654652445752095</v>
       </c>
       <c r="K71">
         <v>70</v>
@@ -8668,10 +8668,10 @@
         <v>92</v>
       </c>
       <c r="I73" s="4">
-        <v>0.106617647058824</v>
+        <v>0.10743019403691401</v>
       </c>
       <c r="J73" s="4">
-        <v>0.89338235294117696</v>
+        <v>0.89256980596308599</v>
       </c>
       <c r="K73">
         <v>72</v>
@@ -8697,10 +8697,10 @@
         <v>93</v>
       </c>
       <c r="I74" s="4">
-        <v>0.331693198263386</v>
+        <v>0.34991304347826102</v>
       </c>
       <c r="J74" s="4">
-        <v>0.66830680173661405</v>
+        <v>0.65008695652173898</v>
       </c>
       <c r="K74">
         <v>73</v>
@@ -8726,10 +8726,10 @@
         <v>94</v>
       </c>
       <c r="I75" s="4">
-        <v>0.302204408817635</v>
+        <v>0.29769033361847702</v>
       </c>
       <c r="J75" s="4">
-        <v>0.697795591182365</v>
+        <v>0.70230966638152303</v>
       </c>
       <c r="K75">
         <v>74</v>
@@ -8755,10 +8755,10 @@
         <v>95</v>
       </c>
       <c r="I76" s="4">
-        <v>0.269582245430809</v>
+        <v>0.26826029216467501</v>
       </c>
       <c r="J76" s="4">
-        <v>0.730417754569191</v>
+        <v>0.73173970783532505</v>
       </c>
       <c r="K76">
         <v>75</v>
@@ -8784,10 +8784,10 @@
         <v>96</v>
       </c>
       <c r="I77" s="4">
-        <v>0.37819947043247998</v>
+        <v>0.37640977443609003</v>
       </c>
       <c r="J77" s="4">
-        <v>0.62180052956751997</v>
+        <v>0.62359022556390997</v>
       </c>
       <c r="K77">
         <v>76</v>
@@ -8813,10 +8813,10 @@
         <v>97</v>
       </c>
       <c r="I78" s="4">
-        <v>0.28067226890756303</v>
+        <v>0.27728813559322002</v>
       </c>
       <c r="J78" s="4">
-        <v>0.71932773109243697</v>
+        <v>0.72271186440678004</v>
       </c>
       <c r="K78">
         <v>77</v>
@@ -8842,10 +8842,10 @@
         <v>98</v>
       </c>
       <c r="I79" s="4">
-        <v>0.30625630676084797</v>
+        <v>0.30709071949947903</v>
       </c>
       <c r="J79" s="4">
-        <v>0.69374369323915197</v>
+        <v>0.69290928050052103</v>
       </c>
       <c r="K79">
         <v>78</v>
@@ -8871,10 +8871,10 @@
         <v>99</v>
       </c>
       <c r="I80" s="4">
-        <v>0.332389380530973</v>
+        <v>0.33592153657539803</v>
       </c>
       <c r="J80" s="4">
-        <v>0.667610619469027</v>
+        <v>0.66407846342460197</v>
       </c>
       <c r="K80">
         <v>79</v>
@@ -8900,10 +8900,10 @@
         <v>100</v>
       </c>
       <c r="I81" s="4">
-        <v>0.17177739920499699</v>
+        <v>0.17262881522809301</v>
       </c>
       <c r="J81" s="4">
-        <v>0.82822260079500298</v>
+        <v>0.82737118477190696</v>
       </c>
       <c r="K81">
         <v>80</v>
@@ -8929,10 +8929,10 @@
         <v>101</v>
       </c>
       <c r="I82" s="4">
-        <v>0.32909783989834801</v>
+        <v>0.32664647993944002</v>
       </c>
       <c r="J82" s="4">
-        <v>0.67090216010165205</v>
+        <v>0.67335352006056004</v>
       </c>
       <c r="K82">
         <v>81</v>
@@ -8958,10 +8958,10 @@
         <v>102</v>
       </c>
       <c r="I83" s="4">
-        <v>0.173040011811605</v>
+        <v>0.17598275004146599</v>
       </c>
       <c r="J83" s="4">
-        <v>0.826959988188395</v>
+        <v>0.82401724995853398</v>
       </c>
       <c r="K83">
         <v>82</v>
@@ -8987,10 +8987,10 @@
         <v>103</v>
       </c>
       <c r="I84" s="4">
-        <v>0.17932862190812701</v>
+        <v>0.18252769385699899</v>
       </c>
       <c r="J84" s="4">
-        <v>0.82067137809187296</v>
+        <v>0.81747230614300104</v>
       </c>
       <c r="K84">
         <v>83</v>
@@ -9016,10 +9016,10 @@
         <v>104</v>
       </c>
       <c r="I85" s="4">
-        <v>0.126015037593985</v>
+        <v>0.12667946257197699</v>
       </c>
       <c r="J85" s="4">
-        <v>0.87398496240601498</v>
+        <v>0.87332053742802296</v>
       </c>
       <c r="K85">
         <v>84</v>
@@ -9045,10 +9045,10 @@
         <v>105</v>
       </c>
       <c r="I86" s="4">
-        <v>0.317748917748918</v>
+        <v>0.31818181818181801</v>
       </c>
       <c r="J86" s="4">
-        <v>0.682251082251082</v>
+        <v>0.68181818181818199</v>
       </c>
       <c r="K86">
         <v>85</v>
@@ -9074,10 +9074,10 @@
         <v>106</v>
       </c>
       <c r="I87" s="4">
-        <v>0.25489510489510497</v>
+        <v>0.24846514987360099</v>
       </c>
       <c r="J87" s="4">
-        <v>0.74510489510489497</v>
+        <v>0.75153485012639898</v>
       </c>
       <c r="K87">
         <v>86</v>
@@ -9103,10 +9103,10 @@
         <v>107</v>
       </c>
       <c r="I88" s="4">
-        <v>0.25489510489510497</v>
+        <v>0.24846514987360099</v>
       </c>
       <c r="J88" s="4">
-        <v>0.74510489510489497</v>
+        <v>0.75153485012639898</v>
       </c>
       <c r="K88">
         <v>87</v>
@@ -9132,10 +9132,10 @@
         <v>108</v>
       </c>
       <c r="I89" s="4">
-        <v>0.26744186046511598</v>
+        <v>0.26711813393528999</v>
       </c>
       <c r="J89" s="4">
-        <v>0.73255813953488402</v>
+        <v>0.73288186606470995</v>
       </c>
       <c r="K89">
         <v>88</v>
@@ -9161,10 +9161,10 @@
         <v>109</v>
       </c>
       <c r="I90" s="4">
-        <v>0.279944928866453</v>
+        <v>0.27988878591288202</v>
       </c>
       <c r="J90" s="4">
-        <v>0.72005507113354705</v>
+        <v>0.72011121408711798</v>
       </c>
       <c r="K90">
         <v>89</v>
@@ -9219,10 +9219,10 @@
         <v>111</v>
       </c>
       <c r="I92" s="4">
-        <v>0.185309973045822</v>
+        <v>0.199922510654785</v>
       </c>
       <c r="J92" s="4">
-        <v>0.81469002695417803</v>
+        <v>0.80007748934521505</v>
       </c>
       <c r="K92">
         <v>91</v>
@@ -9248,10 +9248,10 @@
         <v>112</v>
       </c>
       <c r="I93" s="4">
-        <v>0.23592233009708699</v>
+        <v>0.23625773571168501</v>
       </c>
       <c r="J93" s="4">
-        <v>0.76407766990291304</v>
+        <v>0.76374226428831404</v>
       </c>
       <c r="K93">
         <v>92</v>
@@ -9277,10 +9277,10 @@
         <v>113</v>
       </c>
       <c r="I94" s="4">
-        <v>0.102225088681071</v>
+        <v>0.106955871353777</v>
       </c>
       <c r="J94" s="4">
-        <v>0.89777491131892895</v>
+        <v>0.89304412864622296</v>
       </c>
       <c r="K94">
         <v>93</v>
@@ -9306,10 +9306,10 @@
         <v>114</v>
       </c>
       <c r="I95" s="4">
-        <v>0.27075679647318102</v>
+        <v>0.26945885841363998</v>
       </c>
       <c r="J95" s="4">
-        <v>0.72924320352681804</v>
+        <v>0.73054114158635997</v>
       </c>
       <c r="K95">
         <v>94</v>
@@ -9335,10 +9335,10 @@
         <v>115</v>
       </c>
       <c r="I96" s="4">
-        <v>0.156576200417537</v>
+        <v>0.16129032258064499</v>
       </c>
       <c r="J96" s="4">
-        <v>0.84342379958246305</v>
+        <v>0.83870967741935498</v>
       </c>
       <c r="K96">
         <v>95</v>
@@ -9364,10 +9364,10 @@
         <v>116</v>
       </c>
       <c r="I97" s="4">
-        <v>0.31389026198714798</v>
+        <v>0.30865432716358199</v>
       </c>
       <c r="J97" s="4">
-        <v>0.68610973801285202</v>
+        <v>0.69134567283641801</v>
       </c>
       <c r="K97">
         <v>96</v>
@@ -9393,10 +9393,10 @@
         <v>117</v>
       </c>
       <c r="I98" s="4">
-        <v>0.18958088523305899</v>
+        <v>0.18883610451306401</v>
       </c>
       <c r="J98" s="4">
-        <v>0.81041911476694095</v>
+        <v>0.81116389548693602</v>
       </c>
       <c r="K98">
         <v>97</v>
@@ -9422,10 +9422,10 @@
         <v>118</v>
       </c>
       <c r="I99" s="4">
-        <v>0.18874064432151</v>
+        <v>0.18872870249016999</v>
       </c>
       <c r="J99" s="4">
-        <v>0.81125935567848995</v>
+        <v>0.81127129750982996</v>
       </c>
       <c r="K99">
         <v>98</v>
@@ -9451,10 +9451,10 @@
         <v>119</v>
       </c>
       <c r="I100" s="4">
-        <v>0.15956284153005501</v>
+        <v>0.14754098360655701</v>
       </c>
       <c r="J100" s="4">
-        <v>0.84043715846994504</v>
+        <v>0.85245901639344301</v>
       </c>
       <c r="K100">
         <v>99</v>
@@ -9480,10 +9480,10 @@
         <v>120</v>
       </c>
       <c r="I101" s="4">
-        <v>0.30035615354174899</v>
+        <v>0.29916317991631802</v>
       </c>
       <c r="J101" s="4">
-        <v>0.69964384645825095</v>
+        <v>0.70083682008368198</v>
       </c>
       <c r="K101">
         <v>100</v>
@@ -9509,10 +9509,10 @@
         <v>121</v>
       </c>
       <c r="I102" s="4">
-        <v>0.27545416138571999</v>
+        <v>0.272959183673469</v>
       </c>
       <c r="J102" s="4">
-        <v>0.72454583861428001</v>
+        <v>0.72704081632653095</v>
       </c>
       <c r="K102">
         <v>101</v>
@@ -9538,10 +9538,10 @@
         <v>122</v>
       </c>
       <c r="I103" s="4">
-        <v>0.22466614296936399</v>
+        <v>0.222776392352452</v>
       </c>
       <c r="J103" s="4">
-        <v>0.77533385703063595</v>
+        <v>0.77722360764754805</v>
       </c>
       <c r="K103">
         <v>102</v>
@@ -9567,10 +9567,10 @@
         <v>123</v>
       </c>
       <c r="I104" s="4">
-        <v>0.181017612524462</v>
+        <v>0.179292929292929</v>
       </c>
       <c r="J104" s="4">
-        <v>0.81898238747553798</v>
+        <v>0.82070707070707105</v>
       </c>
       <c r="K104">
         <v>103</v>
@@ -9596,10 +9596,10 @@
         <v>124</v>
       </c>
       <c r="I105" s="4">
-        <v>0.27575871112776301</v>
+        <v>0.27304964539007098</v>
       </c>
       <c r="J105" s="4">
-        <v>0.72424128887223704</v>
+        <v>0.72695035460992896</v>
       </c>
       <c r="K105">
         <v>104</v>
@@ -9625,10 +9625,10 @@
         <v>125</v>
       </c>
       <c r="I106" s="4">
-        <v>0.27751605995717299</v>
+        <v>0.27619893428063902</v>
       </c>
       <c r="J106" s="4">
-        <v>0.72248394004282701</v>
+        <v>0.72380106571936098</v>
       </c>
       <c r="K106">
         <v>105</v>
@@ -9654,10 +9654,10 @@
         <v>126</v>
       </c>
       <c r="I107" s="4">
-        <v>0.28401585204755597</v>
+        <v>0.28051001821493599</v>
       </c>
       <c r="J107" s="4">
-        <v>0.71598414795244403</v>
+        <v>0.71948998178506396</v>
       </c>
       <c r="K107">
         <v>106</v>
@@ -9683,10 +9683,10 @@
         <v>127</v>
       </c>
       <c r="I108" s="4">
-        <v>0.40903280783979601</v>
+        <v>0.39947206335239799</v>
       </c>
       <c r="J108" s="4">
-        <v>0.59096719216020499</v>
+        <v>0.60052793664760196</v>
       </c>
       <c r="K108">
         <v>107</v>
@@ -9712,10 +9712,10 @@
         <v>128</v>
       </c>
       <c r="I109" s="4">
-        <v>0.158380994280686</v>
+        <v>0.15929203539823</v>
       </c>
       <c r="J109" s="4">
-        <v>0.84161900571931403</v>
+        <v>0.84070796460177</v>
       </c>
       <c r="K109">
         <v>108</v>
@@ -9741,10 +9741,10 @@
         <v>129</v>
       </c>
       <c r="I110" s="4">
-        <v>0.20330778539733799</v>
+        <v>0.20355411954765801</v>
       </c>
       <c r="J110" s="4">
-        <v>0.79669221460266204</v>
+        <v>0.79644588045234199</v>
       </c>
       <c r="K110">
         <v>109</v>
@@ -9770,10 +9770,10 @@
         <v>130</v>
       </c>
       <c r="I111" s="4">
-        <v>0.225516322451699</v>
+        <v>0.22643408252264299</v>
       </c>
       <c r="J111" s="4">
-        <v>0.77448367754830105</v>
+        <v>0.77356591747735703</v>
       </c>
       <c r="K111">
         <v>110</v>
@@ -9799,10 +9799,10 @@
         <v>131</v>
       </c>
       <c r="I112" s="4">
-        <v>0.24479568234387</v>
+        <v>0.24258013454689401</v>
       </c>
       <c r="J112" s="4">
-        <v>0.75520431765612905</v>
+        <v>0.75741986545310602</v>
       </c>
       <c r="K112">
         <v>111</v>
@@ -9828,10 +9828,10 @@
         <v>132</v>
       </c>
       <c r="I113" s="4">
-        <v>0.28050355067785698</v>
+        <v>0.28145478374836203</v>
       </c>
       <c r="J113" s="4">
-        <v>0.71949644932214296</v>
+        <v>0.71854521625163803</v>
       </c>
       <c r="K113">
         <v>112</v>
@@ -9857,10 +9857,10 @@
         <v>133</v>
       </c>
       <c r="I114" s="4">
-        <v>0.17369727047146399</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J114" s="4">
-        <v>0.82630272952853601</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="K114">
         <v>113</v>
@@ -9886,10 +9886,10 @@
         <v>134</v>
       </c>
       <c r="I115" s="4">
-        <v>0.27075679647318102</v>
+        <v>0.26945885841363998</v>
       </c>
       <c r="J115" s="4">
-        <v>0.72924320352681804</v>
+        <v>0.73054114158635997</v>
       </c>
       <c r="K115">
         <v>114</v>
@@ -9915,10 +9915,10 @@
         <v>135</v>
       </c>
       <c r="I116" s="4">
-        <v>0.17056856187291</v>
+        <v>0.171223021582734</v>
       </c>
       <c r="J116" s="4">
-        <v>0.82943143812708997</v>
+        <v>0.82877697841726605</v>
       </c>
       <c r="K116">
         <v>115</v>
@@ -9944,10 +9944,10 @@
         <v>136</v>
       </c>
       <c r="I117" s="4">
-        <v>0.242767295597484</v>
+        <v>0.24725274725274701</v>
       </c>
       <c r="J117" s="4">
-        <v>0.757232704402516</v>
+        <v>0.75274725274725296</v>
       </c>
       <c r="K117">
         <v>116</v>
@@ -9973,10 +9973,10 @@
         <v>137</v>
       </c>
       <c r="I118" s="4">
-        <v>0.31452935388651998</v>
+        <v>0.30226789510985103</v>
       </c>
       <c r="J118" s="4">
-        <v>0.68547064611347996</v>
+        <v>0.69773210489014903</v>
       </c>
       <c r="K118">
         <v>117</v>
@@ -10002,10 +10002,10 @@
         <v>138</v>
       </c>
       <c r="I119" s="4">
-        <v>0.159032612678637</v>
+        <v>0.164208074534162</v>
       </c>
       <c r="J119" s="4">
-        <v>0.840967387321363</v>
+        <v>0.83579192546583803</v>
       </c>
       <c r="K119">
         <v>118</v>
@@ -10031,10 +10031,10 @@
         <v>139</v>
       </c>
       <c r="I120" s="4">
-        <v>0.271308016877637</v>
+        <v>0.27218683651804698</v>
       </c>
       <c r="J120" s="4">
-        <v>0.72869198312236305</v>
+        <v>0.72781316348195302</v>
       </c>
       <c r="K120">
         <v>119</v>
@@ -10089,10 +10089,10 @@
         <v>141</v>
       </c>
       <c r="I122" s="4">
-        <v>0.28913609941872098</v>
+        <v>0.29092230992937301</v>
       </c>
       <c r="J122" s="4">
-        <v>0.71086390058127902</v>
+        <v>0.70907769007062704</v>
       </c>
       <c r="K122">
         <v>121</v>
@@ -10118,10 +10118,10 @@
         <v>142</v>
       </c>
       <c r="I123" s="4">
-        <v>0.261041009463722</v>
+        <v>0.25930521091811398</v>
       </c>
       <c r="J123" s="4">
-        <v>0.738958990536278</v>
+        <v>0.74069478908188602</v>
       </c>
       <c r="K123">
         <v>122</v>
@@ -10147,10 +10147,10 @@
         <v>143</v>
       </c>
       <c r="I124" s="4">
-        <v>0.50711439954467796</v>
+        <v>0.50366300366300398</v>
       </c>
       <c r="J124" s="4">
-        <v>0.49288560045532198</v>
+        <v>0.49633699633699602</v>
       </c>
       <c r="K124">
         <v>123</v>
@@ -10176,10 +10176,10 @@
         <v>144</v>
       </c>
       <c r="I125" s="4">
-        <v>0.280071016422548</v>
+        <v>0.28077268643306402</v>
       </c>
       <c r="J125" s="4">
-        <v>0.71992898357745205</v>
+        <v>0.71922731356693603</v>
       </c>
       <c r="K125">
         <v>124</v>
@@ -10205,10 +10205,10 @@
         <v>145</v>
       </c>
       <c r="I126" s="4">
-        <v>0.28148751357220397</v>
+        <v>0.28210678210678197</v>
       </c>
       <c r="J126" s="4">
-        <v>0.71851248642779597</v>
+        <v>0.71789321789321803</v>
       </c>
       <c r="K126">
         <v>125</v>
@@ -10234,10 +10234,10 @@
         <v>146</v>
       </c>
       <c r="I127" s="4">
-        <v>0.210906174819567</v>
+        <v>0.20826235093696799</v>
       </c>
       <c r="J127" s="4">
-        <v>0.78909382518043303</v>
+        <v>0.79173764906303201</v>
       </c>
       <c r="K127">
         <v>126</v>
@@ -10263,10 +10263,10 @@
         <v>147</v>
       </c>
       <c r="I128" s="4">
-        <v>0.229830775285321</v>
+        <v>0.22960229602296001</v>
       </c>
       <c r="J128" s="4">
-        <v>0.77016922471467897</v>
+        <v>0.77039770397703999</v>
       </c>
       <c r="K128">
         <v>127</v>
@@ -10292,10 +10292,10 @@
         <v>148</v>
       </c>
       <c r="I129" s="4">
-        <v>0.18018825638727001</v>
+        <v>0.18148984198645601</v>
       </c>
       <c r="J129" s="4">
-        <v>0.81981174361273002</v>
+        <v>0.81851015801354399</v>
       </c>
       <c r="K129">
         <v>128</v>
@@ -10321,10 +10321,10 @@
         <v>149</v>
       </c>
       <c r="I130" s="4">
-        <v>0.11954924056834899</v>
+        <v>0.112640163098879</v>
       </c>
       <c r="J130" s="4">
-        <v>0.88045075943165096</v>
+        <v>0.88735983690112097</v>
       </c>
       <c r="K130">
         <v>129</v>
@@ -10350,10 +10350,10 @@
         <v>150</v>
       </c>
       <c r="I131" s="4">
-        <v>0.18324607329842901</v>
+        <v>0.17639751552794999</v>
       </c>
       <c r="J131" s="4">
-        <v>0.81675392670157099</v>
+        <v>0.82360248447204998</v>
       </c>
       <c r="K131">
         <v>130</v>
@@ -10379,10 +10379,10 @@
         <v>151</v>
       </c>
       <c r="I132" s="4">
-        <v>0.35370741482965901</v>
+        <v>0.33254156769596199</v>
       </c>
       <c r="J132" s="4">
-        <v>0.64629258517034105</v>
+        <v>0.66745843230403801</v>
       </c>
       <c r="K132">
         <v>131</v>
@@ -10408,10 +10408,10 @@
         <v>152</v>
       </c>
       <c r="I133" s="4">
-        <v>0.24215456674473099</v>
+        <v>0.23557925351430001</v>
       </c>
       <c r="J133" s="4">
-        <v>0.75784543325526899</v>
+        <v>0.76442074648570002</v>
       </c>
       <c r="K133">
         <v>132</v>
@@ -10437,10 +10437,10 @@
         <v>153</v>
       </c>
       <c r="I134" s="4">
-        <v>0.22887979158913299</v>
+        <v>0.23623304070231399</v>
       </c>
       <c r="J134" s="4">
-        <v>0.77112020841086704</v>
+        <v>0.76376695929768601</v>
       </c>
       <c r="K134">
         <v>133</v>
@@ -10466,10 +10466,10 @@
         <v>154</v>
       </c>
       <c r="I135" s="4">
-        <v>0.21798460461861399</v>
+        <v>0.225466342254663</v>
       </c>
       <c r="J135" s="4">
-        <v>0.78201539538138598</v>
+        <v>0.774533657745337</v>
       </c>
       <c r="K135">
         <v>134</v>
@@ -10495,10 +10495,10 @@
         <v>155</v>
       </c>
       <c r="I136" s="4">
-        <v>0.255688870500621</v>
+        <v>0.23634735899731399</v>
       </c>
       <c r="J136" s="4">
-        <v>0.74431112949937905</v>
+        <v>0.76365264100268604</v>
       </c>
       <c r="K136">
         <v>135</v>
@@ -10524,10 +10524,10 @@
         <v>156</v>
       </c>
       <c r="I137" s="4">
-        <v>0.25876707272056099</v>
+        <v>0.26513975155279501</v>
       </c>
       <c r="J137" s="4">
-        <v>0.74123292727943901</v>
+        <v>0.73486024844720499</v>
       </c>
       <c r="K137">
         <v>136</v>
@@ -10582,10 +10582,10 @@
         <v>158</v>
       </c>
       <c r="I139" s="4">
-        <v>0.319641916798315</v>
+        <v>0.318924617817607</v>
       </c>
       <c r="J139" s="4">
-        <v>0.680358083201685</v>
+        <v>0.68107538218239305</v>
       </c>
       <c r="K139">
         <v>138</v>
@@ -10611,10 +10611,10 @@
         <v>159</v>
       </c>
       <c r="I140" s="4">
-        <v>0.17046379170056999</v>
+        <v>0.173557278208441</v>
       </c>
       <c r="J140" s="4">
-        <v>0.82953620829942998</v>
+        <v>0.82644272179155898</v>
       </c>
       <c r="K140">
         <v>139</v>
@@ -10640,10 +10640,10 @@
         <v>160</v>
       </c>
       <c r="I141" s="4">
-        <v>0.21157587548638099</v>
+        <v>0.20725134737873599</v>
       </c>
       <c r="J141" s="4">
-        <v>0.78842412451361898</v>
+        <v>0.79274865262126404</v>
       </c>
       <c r="K141">
         <v>140</v>
@@ -10669,10 +10669,10 @@
         <v>161</v>
       </c>
       <c r="I142" s="4">
-        <v>0.30535714285714299</v>
+        <v>0.30807123910572198</v>
       </c>
       <c r="J142" s="4">
-        <v>0.69464285714285701</v>
+        <v>0.69192876089427802</v>
       </c>
       <c r="K142">
         <v>141</v>
@@ -10698,10 +10698,10 @@
         <v>162</v>
       </c>
       <c r="I143" s="4">
-        <v>0.17984651317984701</v>
+        <v>0.18316041500399</v>
       </c>
       <c r="J143" s="4">
-        <v>0.82015348682015299</v>
+        <v>0.81683958499600995</v>
       </c>
       <c r="K143">
         <v>142</v>
@@ -10727,10 +10727,10 @@
         <v>163</v>
       </c>
       <c r="I144" s="4">
-        <v>0.21793997271487001</v>
+        <v>0.21878536401358001</v>
       </c>
       <c r="J144" s="4">
-        <v>0.78206002728513002</v>
+        <v>0.78121463598642005</v>
       </c>
       <c r="K144">
         <v>143</v>
@@ -10756,10 +10756,10 @@
         <v>164</v>
       </c>
       <c r="I145" s="4">
-        <v>0.27856609410007499</v>
+        <v>0.277340676632573</v>
       </c>
       <c r="J145" s="4">
-        <v>0.72143390589992495</v>
+        <v>0.722659323367427</v>
       </c>
       <c r="K145">
         <v>144</v>
@@ -10785,10 +10785,10 @@
         <v>165</v>
       </c>
       <c r="I146" s="4">
-        <v>0.24316939890710401</v>
+        <v>0.23073122529644299</v>
       </c>
       <c r="J146" s="4">
-        <v>0.75683060109289602</v>
+        <v>0.76926877470355703</v>
       </c>
       <c r="K146">
         <v>145</v>
@@ -10814,10 +10814,10 @@
         <v>166</v>
       </c>
       <c r="I147" s="4">
-        <v>0.23121202430444501</v>
+        <v>0.23736263736263699</v>
       </c>
       <c r="J147" s="4">
-        <v>0.76878797569555501</v>
+        <v>0.76263736263736304</v>
       </c>
       <c r="K147">
         <v>146</v>
@@ -10843,10 +10843,10 @@
         <v>167</v>
       </c>
       <c r="I148" s="4">
-        <v>0.215726636475916</v>
+        <v>0.21617161716171601</v>
       </c>
       <c r="J148" s="4">
-        <v>0.78427336352408406</v>
+        <v>0.78382838283828404</v>
       </c>
       <c r="K148">
         <v>147</v>
@@ -10872,10 +10872,10 @@
         <v>168</v>
       </c>
       <c r="I149" s="4">
-        <v>0.31421568627451002</v>
+        <v>0.31173469387755098</v>
       </c>
       <c r="J149" s="4">
-        <v>0.68578431372548998</v>
+        <v>0.68826530612244896</v>
       </c>
       <c r="K149">
         <v>148</v>
@@ -10901,10 +10901,10 @@
         <v>169</v>
       </c>
       <c r="I150" s="4">
-        <v>0.21876172607879901</v>
+        <v>0.22306768121746101</v>
       </c>
       <c r="J150" s="4">
-        <v>0.78123827392120104</v>
+        <v>0.77693231878253899</v>
       </c>
       <c r="K150">
         <v>149</v>
@@ -10930,10 +10930,10 @@
         <v>170</v>
       </c>
       <c r="I151" s="4">
-        <v>0.18089507333584101</v>
+        <v>0.18024132730015099</v>
       </c>
       <c r="J151" s="4">
-        <v>0.81910492666415902</v>
+        <v>0.81975867269984903</v>
       </c>
       <c r="K151">
         <v>150</v>
@@ -10959,10 +10959,10 @@
         <v>171</v>
       </c>
       <c r="I152" s="4">
-        <v>0.33381924198250701</v>
+        <v>0.33242294186500199</v>
       </c>
       <c r="J152" s="4">
-        <v>0.66618075801749299</v>
+        <v>0.66757705813499801</v>
       </c>
       <c r="K152">
         <v>151</v>
@@ -10988,10 +10988,10 @@
         <v>172</v>
       </c>
       <c r="I153" s="4">
-        <v>0.26798561151079098</v>
+        <v>0.26654064272211703</v>
       </c>
       <c r="J153" s="4">
-        <v>0.73201438848920897</v>
+        <v>0.73345935727788303</v>
       </c>
       <c r="K153">
         <v>152</v>
@@ -11017,10 +11017,10 @@
         <v>173</v>
       </c>
       <c r="I154" s="4">
-        <v>0.25736325385694198</v>
+        <v>0.26428054953000701</v>
       </c>
       <c r="J154" s="4">
-        <v>0.74263674614305797</v>
+        <v>0.73571945046999299</v>
       </c>
       <c r="K154">
         <v>153</v>
@@ -11046,10 +11046,10 @@
         <v>174</v>
       </c>
       <c r="I155" s="4">
-        <v>0.232727272727273</v>
+        <v>0.23411371237458201</v>
       </c>
       <c r="J155" s="4">
-        <v>0.767272727272727</v>
+        <v>0.76588628762541799</v>
       </c>
       <c r="K155">
         <v>154</v>
@@ -11075,10 +11075,10 @@
         <v>175</v>
       </c>
       <c r="I156" s="4">
-        <v>0.12606550022431601</v>
+        <v>0.127843494085532</v>
       </c>
       <c r="J156" s="4">
-        <v>0.87393449977568405</v>
+        <v>0.87215650591446803</v>
       </c>
       <c r="K156">
         <v>155</v>
@@ -11104,10 +11104,10 @@
         <v>176</v>
       </c>
       <c r="I157" s="4">
-        <v>0.16415465268676299</v>
+        <v>0.164503682918274</v>
       </c>
       <c r="J157" s="4">
-        <v>0.83584534731323701</v>
+        <v>0.835496317081726</v>
       </c>
       <c r="K157">
         <v>156</v>
@@ -11133,10 +11133,10 @@
         <v>177</v>
       </c>
       <c r="I158" s="4">
-        <v>0.25828415796640902</v>
+        <v>0.25859632595383902</v>
       </c>
       <c r="J158" s="4">
-        <v>0.74171584203359098</v>
+        <v>0.74140367404616103</v>
       </c>
       <c r="K158">
         <v>157</v>
@@ -11162,10 +11162,10 @@
         <v>178</v>
       </c>
       <c r="I159" s="4">
-        <v>0.27874564459930301</v>
+        <v>0.27011285038223498</v>
       </c>
       <c r="J159" s="4">
-        <v>0.72125435540069704</v>
+        <v>0.72988714961776502</v>
       </c>
       <c r="K159">
         <v>158</v>
@@ -11220,10 +11220,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="4">
-        <v>0.245348334054522</v>
+        <v>0.24185631414547101</v>
       </c>
       <c r="J161" s="4">
-        <v>0.75465166594547795</v>
+        <v>0.75814368585452896</v>
       </c>
       <c r="K161">
         <v>160</v>
@@ -11249,10 +11249,10 @@
         <v>181</v>
       </c>
       <c r="I162" s="4">
-        <v>0.18720000000000001</v>
+        <v>0.18157720344599099</v>
       </c>
       <c r="J162" s="4">
-        <v>0.81279999999999997</v>
+        <v>0.81842279655400896</v>
       </c>
       <c r="K162">
         <v>161</v>
@@ -11278,10 +11278,10 @@
         <v>182</v>
       </c>
       <c r="I163" s="4">
-        <v>0.31261048909840899</v>
+        <v>0.30980392156862702</v>
       </c>
       <c r="J163" s="4">
-        <v>0.68738951090159095</v>
+        <v>0.69019607843137298</v>
       </c>
       <c r="K163">
         <v>162</v>
@@ -11307,10 +11307,10 @@
         <v>183</v>
       </c>
       <c r="I164" s="4">
-        <v>0.23443708609271499</v>
+        <v>0.230683713173986</v>
       </c>
       <c r="J164" s="4">
-        <v>0.76556291390728504</v>
+        <v>0.76931628682601405</v>
       </c>
       <c r="K164">
         <v>163</v>
@@ -11336,10 +11336,10 @@
         <v>184</v>
       </c>
       <c r="I165" s="4">
-        <v>9.5583962812318402E-2</v>
+        <v>0.240242516104585</v>
       </c>
       <c r="J165" s="4">
-        <v>0.90441603718768204</v>
+        <v>0.75975748389541498</v>
       </c>
       <c r="K165">
         <v>164</v>
@@ -11365,10 +11365,10 @@
         <v>185</v>
       </c>
       <c r="I166" s="4">
-        <v>0.20977312390924999</v>
+        <v>8.4680025856496394E-2</v>
       </c>
       <c r="J166" s="4">
-        <v>0.79022687609075004</v>
+        <v>0.91531997414350397</v>
       </c>
       <c r="K166">
         <v>165</v>
@@ -11394,10 +11394,10 @@
         <v>186</v>
       </c>
       <c r="I167" s="4">
-        <v>0.37811980033277898</v>
+        <v>0.211545230552622</v>
       </c>
       <c r="J167" s="4">
-        <v>0.62188019966722097</v>
+        <v>0.78845476944737802</v>
       </c>
       <c r="K167">
         <v>166</v>
@@ -11423,10 +11423,10 @@
         <v>187</v>
       </c>
       <c r="I168" s="4">
-        <v>0.291484716157205</v>
+        <v>0.381222707423581</v>
       </c>
       <c r="J168" s="4">
-        <v>0.70851528384279505</v>
+        <v>0.618777292576419</v>
       </c>
       <c r="K168">
         <v>167</v>
@@ -11452,10 +11452,10 @@
         <v>188</v>
       </c>
       <c r="I169" s="4">
-        <v>0.234978540772532</v>
+        <v>0.291484716157205</v>
       </c>
       <c r="J169" s="4">
-        <v>0.765021459227468</v>
+        <v>0.70851528384279505</v>
       </c>
       <c r="K169">
         <v>168</v>
@@ -11481,10 +11481,10 @@
         <v>189</v>
       </c>
       <c r="I170" s="4">
-        <v>0.193942354665364</v>
+        <v>0.234978540772532</v>
       </c>
       <c r="J170" s="4">
-        <v>0.80605764533463597</v>
+        <v>0.765021459227468</v>
       </c>
       <c r="K170">
         <v>169</v>
@@ -11510,10 +11510,10 @@
         <v>190</v>
       </c>
       <c r="I171" s="4">
-        <v>0.193942354665364</v>
+        <v>0.195759368836292</v>
       </c>
       <c r="J171" s="4">
-        <v>0.80605764533463597</v>
+        <v>0.80424063116370803</v>
       </c>
       <c r="K171">
         <v>170</v>
@@ -11539,10 +11539,10 @@
         <v>191</v>
       </c>
       <c r="I172" s="4">
-        <v>0.210207939508507</v>
+        <v>0.21632294866169399</v>
       </c>
       <c r="J172" s="4">
-        <v>0.78979206049149298</v>
+        <v>0.78367705133830601</v>
       </c>
       <c r="K172">
         <v>171</v>
@@ -11568,10 +11568,10 @@
         <v>192</v>
       </c>
       <c r="I173" s="4">
-        <v>0.25791682563906898</v>
+        <v>0.25821237585943502</v>
       </c>
       <c r="J173" s="4">
-        <v>0.74208317436093096</v>
+        <v>0.74178762414056498</v>
       </c>
       <c r="K173">
         <v>172</v>
@@ -11597,10 +11597,10 @@
         <v>193</v>
       </c>
       <c r="I174" s="4">
-        <v>0.243966817496229</v>
+        <v>0.24358006042296099</v>
       </c>
       <c r="J174" s="4">
-        <v>0.75603318250377105</v>
+        <v>0.75641993957703901</v>
       </c>
       <c r="K174">
         <v>173</v>
@@ -11626,10 +11626,10 @@
         <v>194</v>
       </c>
       <c r="I175" s="4">
-        <v>0.218487394957983</v>
+        <v>0.218654434250765</v>
       </c>
       <c r="J175" s="4">
-        <v>0.78151260504201703</v>
+        <v>0.78134556574923597</v>
       </c>
       <c r="K175">
         <v>174</v>

--- a/plots/seinfeld.xlsx
+++ b/plots/seinfeld.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="420" windowWidth="34240" windowHeight="19540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3040" yWindow="420" windowWidth="34240" windowHeight="19540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Share overall" sheetId="1" r:id="rId1"/>
     <sheet name="Share by Season" sheetId="2" r:id="rId2"/>
     <sheet name="Share by Episode" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Share by Season'!$A$1:$C$46</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="207">
   <si>
     <t>speaker</t>
   </si>
@@ -647,12 +648,30 @@
       <t xml:space="preserve"> by Season</t>
     </r>
   </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Share of dialogue</t>
+  </si>
+  <si>
+    <t>Main Female (Elaine)</t>
+  </si>
+  <si>
+    <t>Secondary Female</t>
+  </si>
+  <si>
+    <t>Secondary Male</t>
+  </si>
+  <si>
+    <t>Main Male (Jerry/George/Kramer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -692,6 +711,17 @@
       <color theme="1"/>
       <name val="Archer Bold"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF3A4145"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF3A4145"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -716,7 +746,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,8 +782,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -763,8 +795,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +817,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -799,6 +835,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,11 +976,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134690872"/>
-        <c:axId val="2134693944"/>
+        <c:axId val="2107964200"/>
+        <c:axId val="2107965784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134690872"/>
+        <c:axId val="2107964200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134693944"/>
+        <c:crossAx val="2107965784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134693944"/>
+        <c:axId val="2107965784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134690872"/>
+        <c:crossAx val="2107964200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,11 +1172,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134236888"/>
-        <c:axId val="2134242456"/>
+        <c:axId val="2111143928"/>
+        <c:axId val="2111149608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134236888"/>
+        <c:axId val="2111143928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134242456"/>
+        <c:crossAx val="2111149608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1195,7 +1232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134242456"/>
+        <c:axId val="2111149608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1206,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134236888"/>
+        <c:crossAx val="2111143928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,11 +1386,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134266840"/>
-        <c:axId val="2134272376"/>
+        <c:axId val="2111461048"/>
+        <c:axId val="2111466584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134266840"/>
+        <c:axId val="2111461048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134272376"/>
+        <c:crossAx val="2111466584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134272376"/>
+        <c:axId val="2111466584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1404,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134266840"/>
+        <c:crossAx val="2111461048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,11 +1592,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134297208"/>
-        <c:axId val="2134302840"/>
+        <c:axId val="2111491352"/>
+        <c:axId val="2111496984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134297208"/>
+        <c:axId val="2111491352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134302840"/>
+        <c:crossAx val="2111496984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134302840"/>
+        <c:axId val="2111496984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134297208"/>
+        <c:crossAx val="2111491352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,11 +1814,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134325928"/>
-        <c:axId val="2134331544"/>
+        <c:axId val="2109957880"/>
+        <c:axId val="2109952344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134325928"/>
+        <c:axId val="2109957880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134331544"/>
+        <c:crossAx val="2109952344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134331544"/>
+        <c:axId val="2109952344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1848,7 +1885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134325928"/>
+        <c:crossAx val="2109957880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,11 +2023,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2134355656"/>
-        <c:axId val="2134361672"/>
+        <c:axId val="2109922776"/>
+        <c:axId val="2109916808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134355656"/>
+        <c:axId val="2109922776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134361672"/>
+        <c:crossAx val="2109916808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2057,7 +2094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134361672"/>
+        <c:axId val="2109916808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2068,7 +2105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134355656"/>
+        <c:crossAx val="2109922776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3274,11 +3311,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2134406712"/>
-        <c:axId val="2134412376"/>
+        <c:axId val="2109871480"/>
+        <c:axId val="2109865832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134406712"/>
+        <c:axId val="2109871480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134412376"/>
+        <c:crossAx val="2109865832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134412376"/>
+        <c:axId val="2109865832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3356,7 +3393,505 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134406712"/>
+        <c:crossAx val="2109871480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:latin typeface="Archer Bold"/>
+                <a:cs typeface="Archer Bold"/>
+              </a:rPr>
+              <a:t>Share of Words Spoken on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" i="1">
+                <a:latin typeface="Archer Bold"/>
+                <a:cs typeface="Archer Bold"/>
+              </a:rPr>
+              <a:t>Seinfeld</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.146145552560647"/>
+          <c:y val="0.0167044788415533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.136765559103874"/>
+          <c:y val="0.223021582733813"/>
+          <c:w val="0.832274688574145"/>
+          <c:h val="0.707585868313223"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main Male (Jerry/George/Kramer)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr lIns="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Archer Bold"/>
+                    <a:cs typeface="Archer Bold"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of dialogue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secondary Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="Archer Bold"/>
+                    <a:cs typeface="Archer Bold"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of dialogue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main Female (Elaine)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="Archer Bold"/>
+                    <a:cs typeface="Archer Bold"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of dialogue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secondary Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="Archer Bold"/>
+                    <a:cs typeface="Archer Bold"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of dialogue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:overlap val="100"/>
+        <c:axId val="2127294392"/>
+        <c:axId val="2127297480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2127294392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050">
+                <a:latin typeface="Archer  "/>
+                <a:cs typeface="Archer  "/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127297480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127297480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Archer  "/>
+                <a:cs typeface="Archer  "/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127294392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,6 +4129,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4399,7 +4969,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="38">
+    <row r="3" spans="1:25" ht="35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5581,7 +6151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
@@ -14695,4 +15265,455 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21">
+      <c r="A1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H2" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>